--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F9-Lrp1.xlsx
@@ -537,7 +537,7 @@
         <v>0.019897</v>
       </c>
       <c r="H2">
-        <v>0.05969099999999999</v>
+        <v>0.059691</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>0.3415624474100001</v>
+        <v>0.04033351378733333</v>
       </c>
       <c r="R2">
-        <v>3.074062026690001</v>
+        <v>0.363001624086</v>
       </c>
       <c r="S2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="T2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.019897</v>
       </c>
       <c r="H3">
-        <v>0.05969099999999999</v>
+        <v>0.059691</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>5.102472343217332</v>
+        <v>5.102472343217333</v>
       </c>
       <c r="R3">
         <v>45.922251088956</v>
       </c>
       <c r="S3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="T3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.019897</v>
       </c>
       <c r="H4">
-        <v>0.05969099999999999</v>
+        <v>0.059691</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>0.6515349983006665</v>
+        <v>0.9717747659696669</v>
       </c>
       <c r="R4">
-        <v>5.863814984705999</v>
+        <v>8.745972893727002</v>
       </c>
       <c r="S4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="T4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
     </row>
   </sheetData>
